--- a/Document/sql语句.xlsx
+++ b/Document/sql语句.xlsx
@@ -90,7 +90,7 @@
     <t>入库</t>
   </si>
   <si>
-    <t>SELECT mname,mid,username FROM tb_materiain WHERE mid ='222'（按照入库单号mid查询数据，显示商品名和入库单号）</t>
+    <t>SELECT mname,mid,username FROM tb_materiain WHERE orderid ='222'（按照入库单号mid查询数据，显示商品名和入库单号）</t>
   </si>
   <si>
     <t>开单操作（往个人信息表插入数据，发往审批）：</t>
@@ -103,7 +103,7 @@
     <t>入库审批通过3步操作：</t>
   </si>
   <si>
-    <t>（入库单）INSERT INTO `tb_materiain` (`mid`, `mpspec`, `mname`, `number`, `carNum`,  `stockLoca`, `price`, `totalPrice`, `intime`, `sname`, `username`, `approval`) VALUES ('222', 'www', '王总', '2', '京A001', '1', '300', '600', '2016-05-15 15:34:28', 'BmmsProduct', 'dou', '1')（入库approval必须为1）</t>
+    <t>（入库单）INSERT INTO `tb_materiain` (`orderid`, `mpspec`, `mname`, `number`, `carNum`,  `stockLoca`, `price`, `totalPrice`, `intime`, `sname`, `username`, `approval`) VALUES ('222', 'www', '王总', '2', '京A001', '1', '300', '600', '2016-05-15 15:34:28', 'BmmsProduct', 'dou', '1')（入库approval必须为1）</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -122,7 +122,7 @@
     <t>销售</t>
   </si>
   <si>
-    <t>SELECT mname,mid,username FROM tb_materiaout WHERE mid ='222'（按照销售单号mid查询数据，显示商品名和销售单号）</t>
+    <t>SELECT mname,mid,username FROM tb_materiaout WHERE orderid ='222'（按照销售单号mid查询数据，显示商品名和销售单号）</t>
   </si>
   <si>
     <t>INSERT INTO `tb_personmessage` (`orderid`, `mname`, `carNum`, `mpspec`, `number`, `stockLoca`, `price`, `totalPrice`, `creatTime`, `relationName`, `operation`, `approval`) VALUES ('333', '70#沥青', '京A666', 'LQ-70#\n', '1', '1', '200', '300', '2016-05-13 20:37:00', '谢腾飞','1',  '0'),
@@ -132,7 +132,7 @@
     <t>销售审批通过3步操作：</t>
   </si>
   <si>
-    <t>（入销售表）INSERT INTO `tb_materiaout` (`mid`, `mpspec`, `mname`, `number`, `carNum`, `stockloca`, `price`, `totalPrice`, `outTime`, `username`, `cname`, `approval`) VALUES ('333', 'LQ-70#\n', '70#沥青', '3', '京A666', '1', '200', '300', '2016-05-13 20:37:00', 'dou', '谢腾飞', '1')</t>
+    <t>（入销售表）INSERT INTO `tb_materiaout` (`orderid`, `mpspec`, `mname`, `number`, `carNum`, `stockloca`, `price`, `totalPrice`, `outTime`, `username`, `cname`, `approval`) VALUES ('333', 'LQ-70#\n', '70#沥青', '3', '京A666', '1', '200', '300', '2016-05-13 20:37:00', 'dou', '谢腾飞', '1')</t>
   </si>
   <si>
     <t>（更新仓库表信息）UPDATE tb_materialstock SET number=number-(SELECT number FROM tb_materiain WHERE mid='333' AND mname='70#沥青') WHERE mname='王总'</t>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -157,13 +157,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -175,15 +243,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -201,63 +262,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -268,12 +274,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -284,7 +284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +308,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,61 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,15 @@
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +486,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -495,65 +554,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color indexed="52"/>
       </bottom>
@@ -570,146 +570,146 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,15 +726,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -757,39 +748,39 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="强调文字颜色 4" xfId="3"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="强调文字颜色 4" xfId="4"/>
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="标题" xfId="6"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="标题" xfId="7"/>
+    <cellStyle name="输入" xfId="8"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
+    <cellStyle name="差" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
+    <cellStyle name="警告文本" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
+    <cellStyle name="标题 3" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
+    <cellStyle name="输出" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
+    <cellStyle name="链接单元格" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle name="强调文字颜色 1" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1108,11 +1099,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1136,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C3:H28"/>
+  <dimension ref="C3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1385,7 +1376,7 @@
       <c r="H22" s="7"/>
     </row>
     <row r="23" ht="99.75" spans="3:8">
-      <c r="C23" s="8"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
         <v>36</v>
       </c>
@@ -1395,21 +1386,21 @@
       <c r="F23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="8"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" ht="28.5" spans="3:8">
-      <c r="C25" s="8"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
@@ -1417,33 +1408,34 @@
         <v>32</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="8"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="8"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-    </row>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" ht="15" spans="3:8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Document/sql语句.xlsx
+++ b/Document/sql语句.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>查询</t>
   </si>
@@ -136,6 +136,17 @@
   </si>
   <si>
     <t>（更新仓库表信息）UPDATE tb_materialstock SET number=number-(SELECT number FROM tb_materiain WHERE mid='333' AND mname='70#沥青') WHERE mname='王总'</t>
+  </si>
+  <si>
+    <t>登陆判定（MD5加密）：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM tb_user WHERE username='bmms01'（首先判定是否存在该用户，也可以不用，直接用右边的SQl语句判定）
+</t>
+  </si>
+  <si>
+    <t>SELECT * FROM tb_user WHERE username='bmms01' AND pwd=('20160518'+'5ee0a013ec69b8ef40457e49658e93ac
+')（数据库里盐和密码的前台第一次MD5相加再MD5一次，这里面的数据需要在后台组织一下）</t>
   </si>
 </sst>
 </file>
@@ -156,18 +167,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -175,6 +174,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="12"/>
@@ -182,27 +245,28 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -215,65 +279,12 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -281,6 +292,60 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,37 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,43 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +478,45 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +536,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -511,54 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -573,139 +584,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -753,34 +764,34 @@
     <cellStyle name="百分比" xfId="5" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
     <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
+    <cellStyle name="输入" xfId="9"/>
+    <cellStyle name="差" xfId="10"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
     <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
+    <cellStyle name="警告文本" xfId="16"/>
     <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
     <cellStyle name="解释性文本" xfId="19"/>
     <cellStyle name="标题 1" xfId="20"/>
     <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
+    <cellStyle name="标题 3" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
+    <cellStyle name="输出" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
     <cellStyle name="计算" xfId="26"/>
     <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
+    <cellStyle name="链接单元格" xfId="28"/>
     <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
     <cellStyle name="汇总" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
+    <cellStyle name="强调文字颜色 1" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
@@ -1127,17 +1138,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C3:H29"/>
+  <dimension ref="C3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="45.25" customWidth="1"/>
     <col min="5" max="5" width="69.5" customWidth="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="41.75" customWidth="1"/>
     <col min="7" max="7" width="69.625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
@@ -1427,15 +1438,44 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" ht="15" spans="3:8">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="15"/>
+    <row r="28" ht="85.5" spans="3:8">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/Document/sql语句.xlsx
+++ b/Document/sql语句.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>查询</t>
   </si>
@@ -147,6 +147,18 @@
   <si>
     <t>SELECT * FROM tb_user WHERE username='bmms01' AND pwd=('20160518'+'5ee0a013ec69b8ef40457e49658e93ac
 ')（数据库里盐和密码的前台第一次MD5相加再MD5一次，这里面的数据需要在后台组织一下）</t>
+  </si>
+  <si>
+    <t>入库分析查询：</t>
+  </si>
+  <si>
+    <t>SELECT * FROM (SELECT * FROM tb_materiain WHERE orderRemark LIKE '%发%'AND sname LIKE '%BmmsProduct%' AND inTime BETWEEN '2016-05-03' AND '2016-05-12') AS a,(SELECT DISTINCT orderid FROM tb_materiain WHERE mname LIKE '%沥青%') AS b WHERE a.orderid=b.orderid（模糊查询，%号之间填界面上的字符串，三个参数分别是：订单备注，供应商名称和产品名称）</t>
+  </si>
+  <si>
+    <t>销售分析查询：</t>
+  </si>
+  <si>
+    <t>SELECT * FROM (SELECT * FROM tb_materiaout WHERE orderRemark LIKE '%发%'AND cname LIKE '%飞%' AND outTime BETWEEN '2016-05-05' AND '2016-05-30') AS a,(SELECT DISTINCT orderid FROM tb_materiaout WHERE mname LIKE '%沥青%') AS b WHERE a.orderid=b.orderid（模糊查询，%号之间填界面上的字符串，三个参数分别是：订单备注，客户名称和产品名称）</t>
   </si>
 </sst>
 </file>
@@ -167,6 +179,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="62"/>
@@ -174,117 +291,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -292,6 +304,48 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -301,31 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,25 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,24 +395,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -394,11 +406,11 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -407,7 +419,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -415,17 +427,17 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -435,7 +447,7 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -443,12 +455,12 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,18 +469,51 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,11 +542,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,203 +582,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,55 +769,56 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="8"/>
-    <cellStyle name="输入" xfId="9"/>
-    <cellStyle name="差" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="警告文本" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="标题 3" xfId="22"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle name="输出" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="链接单元格" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="强调文字颜色 1" xfId="34"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -855,71 +868,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1138,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C3:H31"/>
+  <dimension ref="C3:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1236,7 +1249,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="42.75" spans="3:8">
+    <row r="9" ht="28.5" spans="3:8">
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1323,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" ht="114" spans="3:8">
+    <row r="16" ht="71.25" spans="3:8">
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
         <v>27</v>
@@ -1386,7 +1399,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" ht="99.75" spans="3:8">
+    <row r="23" ht="71.25" spans="3:8">
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
         <v>36</v>
@@ -1468,14 +1481,63 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
+    <row r="31" ht="85.5" spans="3:8">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" ht="71.25" spans="3:8">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" ht="15" spans="3:8">
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
